--- a/tests/testthat/fixtures/ex1/tables/mv_person.xlsx
+++ b/tests/testthat/fixtures/ex1/tables/mv_person.xlsx
@@ -84,22 +84,22 @@
     <t xml:space="preserve">0.12</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5</t>
+    <t xml:space="preserve">1.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>68.2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5">
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>89.4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,15 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>34.1</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="3">
@@ -560,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>8.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -584,7 +592,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="7">
@@ -592,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="8">
@@ -600,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="9">
@@ -608,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
@@ -616,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="11">
@@ -624,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -632,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
@@ -656,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>19.3</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="3">
@@ -694,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>21.7</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="4">
@@ -702,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>20.8</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>11.8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="6">
@@ -718,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7">
@@ -726,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="8">
@@ -734,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -742,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="10">
@@ -750,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11">
@@ -758,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -774,7 +782,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -782,7 +790,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
@@ -790,7 +798,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
